--- a/Cost_Breakdown_SolarTele.xlsx
+++ b/Cost_Breakdown_SolarTele.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remyv\Documents\NRAO\Solar Telescope Redesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0DF00A-BA0C-4708-8D50-358B7F6AF067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F5973-AB2F-4D91-AAE3-81D8D4017CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CEE51DDE-1FC0-4F37-B228-20480DD76876}"/>
   </bookViews>
@@ -74,10 +74,10 @@
     <t>DFR 0550 5" LCD</t>
   </si>
   <si>
-    <t>Raspberry Pi (Free)</t>
-  </si>
-  <si>
     <t>PCB Components (Estimate)</t>
+  </si>
+  <si>
+    <t>Raspberry Pi (Free?)</t>
   </si>
 </sst>
 </file>
@@ -256,7 +256,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,15 +284,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -616,7 +607,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,46 +675,46 @@
         <f>C3*B3</f>
         <v>640</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="4">
         <v>80</v>
       </c>
       <c r="G3" s="2">
         <v>8</v>
       </c>
       <c r="H3" s="5">
-        <f>G3*F3</f>
+        <f t="shared" ref="H3:H14" si="0">G3*F3</f>
         <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D41" si="0">C4*B4</f>
-        <v>100</v>
+        <f t="shared" ref="D4:D6" si="1">C4*B4</f>
+        <v>40</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="5">
-        <f>G4*F4</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -735,20 +726,20 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="4">
         <v>165</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <f>G5*F5</f>
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
     </row>
@@ -761,21 +752,21 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4">
         <v>35</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="5">
-        <f>G6*F6</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -787,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <f>C7*B7</f>
+        <f t="shared" ref="D7:D16" si="2">C7*B7</f>
         <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -800,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="5">
-        <f>G7*F7</f>
+        <f t="shared" si="0"/>
         <v>47.38</v>
       </c>
     </row>
@@ -813,20 +804,20 @@
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <f>C8*B8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="18" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="4">
         <v>64</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="17">
-        <f>G8*F8</f>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
@@ -839,20 +830,20 @@
         <v>0</v>
       </c>
       <c r="D9" s="5">
-        <f>C9*B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="18" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="4">
         <v>126.71</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="17">
-        <f>G9*F9</f>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
         <v>126.71</v>
       </c>
     </row>
@@ -865,18 +856,18 @@
         <v>0</v>
       </c>
       <c r="D10" s="5">
-        <f>C10*B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
-        <f>G10*F10</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -889,18 +880,18 @@
         <v>0</v>
       </c>
       <c r="D11" s="5">
-        <f>C11*B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <f>G11*F11</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -913,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="5">
-        <f>C12*B12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12" s="8"/>
@@ -924,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <f>G12*F12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -937,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <f>C13*B13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13" s="8"/>
@@ -948,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <f>G13*F13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -961,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5">
-        <f>C14*B14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E14" s="8"/>
@@ -972,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <f>G14*F14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -985,14 +976,14 @@
         <v>0</v>
       </c>
       <c r="D15" s="5">
-        <f>C15*B15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="5">
@@ -1008,14 +999,14 @@
         <v>0</v>
       </c>
       <c r="D16" s="5">
-        <f>C16*B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="5">
@@ -1030,7 +1021,7 @@
       </c>
       <c r="D17" s="7">
         <f>SUM(D3:D16)</f>
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1039,7 +1030,7 @@
       </c>
       <c r="H17" s="7">
         <f>SUM(H3:H16)</f>
-        <v>1143.0899999999999</v>
+        <v>1118.0899999999999</v>
       </c>
     </row>
   </sheetData>
